--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Interface/IFindableDataForItemsDao_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/Interface/IFindableDataForItemsDao_クラス仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA8294-0ACE-4C59-8699-F4D761F8B641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7BA36-4D1D-4366-A358-8A1D8F64BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（findAllItems）'!$A$1:$BI$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（findByItemName)'!$A$1:$BI$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'メソッド仕様（findByNameAndCategory)'!$A$1:$BI$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'メソッド仕様（findByNameAndCategory)'!$A$1:$BI$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>itemCategory</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>findByNameAndCategory</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -267,6 +263,14 @@
   <si>
     <t>IFindableDataForItemsDao</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemsDTO</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -749,44 +753,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,14 +786,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,9 +841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,83 +1198,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="30">
         <v>45554</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1470,77 +1474,77 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="36" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
-        <v>42</v>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1740,239 +1744,239 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="30" t="s">
-        <v>37</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37" t="s">
+        <v>36</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="31"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="32"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="39"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="30" t="s">
-        <v>42</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37" t="s">
+        <v>41</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="31"/>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="32"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="39"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="26" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="24" t="s">
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="24"/>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="24"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -2012,30 +2016,30 @@
       <c r="BI8" s="7"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="34"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -2075,30 +2079,30 @@
       <c r="BI9" s="7"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="34"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -2138,30 +2142,30 @@
       <c r="BI10" s="7"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="34"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -2201,30 +2205,30 @@
       <c r="BI11" s="7"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -2264,30 +2268,30 @@
       <c r="BI12" s="7"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="34"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -2327,30 +2331,30 @@
       <c r="BI13" s="7"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="34"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -2390,30 +2394,30 @@
       <c r="BI14" s="7"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="34"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
@@ -2453,30 +2457,30 @@
       <c r="BI15" s="7"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="29"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -2516,460 +2520,469 @@
       <c r="BI16" s="7"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="35"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="25"/>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="25"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="25"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="28"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="25"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25"/>
-      <c r="BB20" s="25"/>
-      <c r="BC20" s="25"/>
-      <c r="BD20" s="25"/>
-      <c r="BE20" s="25"/>
-      <c r="BF20" s="25"/>
-      <c r="BG20" s="25"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="25"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="25"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="25"/>
-      <c r="BD21" s="25"/>
-      <c r="BE21" s="25"/>
-      <c r="BF21" s="25"/>
-      <c r="BG21" s="25"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="25"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
     </row>
     <row r="23" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="25"/>
-      <c r="AZ23" s="25"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="25"/>
-      <c r="BC23" s="25"/>
-      <c r="BD23" s="25"/>
-      <c r="BE23" s="25"/>
-      <c r="BF23" s="25"/>
-      <c r="BG23" s="25"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="25"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
+      <c r="AZ23" s="28"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
+      <c r="BD23" s="28"/>
+      <c r="BE23" s="28"/>
+      <c r="BF23" s="28"/>
+      <c r="BG23" s="28"/>
+      <c r="BH23" s="28"/>
+      <c r="BI23" s="28"/>
     </row>
     <row r="24" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="25"/>
-      <c r="AY24" s="25"/>
-      <c r="AZ24" s="25"/>
-      <c r="BA24" s="25"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="25"/>
-      <c r="BD24" s="25"/>
-      <c r="BE24" s="25"/>
-      <c r="BF24" s="25"/>
-      <c r="BG24" s="25"/>
-      <c r="BH24" s="25"/>
-      <c r="BI24" s="25"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="A19:BI24"/>
+    <mergeCell ref="A18:BI18"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:X15"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:X14"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q12:X12"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="AE1:AP1"/>
@@ -2986,25 +2999,16 @@
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="G6:AE6"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A19:BI24"/>
-    <mergeCell ref="A18:BI18"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:X14"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="Q12:X12"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:X10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3028,83 +3032,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="30">
         <v>45554</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3304,77 +3308,77 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="36" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
-        <v>42</v>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3574,71 +3578,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
-        <v>38</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>37</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3838,71 +3842,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4362,75 +4366,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -5154,67 +5158,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5414,67 +5418,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -6194,75 +6198,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="47" t="s">
-        <v>41</v>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="47" t="s">
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="45" t="s">
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="45"/>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="47"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -11350,6 +11354,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="S14:AS14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="AT2:AZ2"/>
@@ -11366,35 +11399,6 @@
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="S14:AS14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
@@ -11426,83 +11430,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="30">
         <v>45554</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -11702,77 +11706,77 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="36" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
-        <v>42</v>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -11972,71 +11976,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
-        <v>39</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>38</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -12236,71 +12240,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24" t="s">
-        <v>36</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>35</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -12760,75 +12764,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -13294,11 +13298,11 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -13311,23 +13315,23 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
       <c r="AG9" s="44"/>
@@ -13558,67 +13562,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -13818,67 +13822,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -14598,75 +14602,75 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="47" t="s">
-        <v>41</v>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="47" t="s">
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="45" t="s">
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="45"/>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="47"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -19754,30 +19758,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="S14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -19794,11 +19779,30 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="S14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
@@ -19818,10 +19822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD4B17A-DDE8-4976-96A7-5A641D40BCA3}">
-  <dimension ref="A1:IX33"/>
+  <dimension ref="A1:IX32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14:BI14"/>
+      <selection activeCell="AE10" sqref="AE10:BI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19830,83 +19834,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="37">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="30">
         <v>45554</v>
       </c>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -20106,77 +20110,77 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="36" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="35" t="s">
-        <v>42</v>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -20376,71 +20380,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
-        <v>40</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>39</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -20640,71 +20644,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24" t="s">
-        <v>35</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>34</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -21164,75 +21168,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -21438,7 +21442,7 @@
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="44" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
@@ -21452,7 +21456,7 @@
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
       <c r="P8" s="44" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -21698,14 +21702,12 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
+      <c r="A9" s="28" t="s">
+        <v>31</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="44" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -21717,23 +21719,23 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
-      <c r="P9" s="25" t="s">
-        <v>33</v>
+      <c r="P9" s="28" t="s">
+        <v>30</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
       <c r="AG9" s="44"/>
@@ -21964,71 +21966,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -22228,67 +22226,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -22488,67 +22486,67 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -22748,67 +22746,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
+      <c r="A13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="47"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -23008,75 +23014,67 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="45"/>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="46"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="10"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -23276,24 +23274,21 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="20"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="21"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
@@ -23321,22 +23316,20 @@
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
-      <c r="BH15" s="9"/>
-      <c r="BI15" s="10"/>
+      <c r="AT15" s="11"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="16"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -23537,7 +23530,8 @@
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -23550,34 +23544,36 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="12"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
       <c r="AT16" s="11"/>
       <c r="AW16" s="14"/>
       <c r="AX16" s="15"/>
@@ -23806,13 +23802,9 @@
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="21"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
       <c r="R17" s="23"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="U17" s="15"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -24319,8 +24311,10 @@
       <c r="N19" s="15"/>
       <c r="O19" s="21"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -24572,6 +24566,8 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="21"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="23"/>
       <c r="S20" s="14"/>
       <c r="T20" s="6"/>
@@ -25086,8 +25082,6 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
       <c r="R22" s="23"/>
       <c r="S22" s="14"/>
       <c r="T22" s="6"/>
@@ -25344,6 +25338,8 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="21"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="23"/>
       <c r="S23" s="14"/>
       <c r="T23" s="6"/>
@@ -25603,8 +25599,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="23"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="6"/>
+      <c r="S24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -26118,7 +26113,8 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -26630,8 +26626,8 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="23"/>
       <c r="S28" s="14"/>
       <c r="T28" s="6"/>
@@ -27407,7 +27403,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="14"/>
+      <c r="S31" s="18"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
@@ -27667,7 +27663,7 @@
       <c r="R32" s="23"/>
       <c r="S32" s="18"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -27904,290 +27900,13 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="11"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="15"/>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="15"/>
-      <c r="BF33" s="15"/>
-      <c r="BG33" s="15"/>
-      <c r="BH33" s="15"/>
-      <c r="BI33" s="16"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="BQ33" s="1"/>
-      <c r="BR33" s="1"/>
-      <c r="BS33" s="1"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1"/>
-      <c r="BV33" s="1"/>
-      <c r="BW33" s="1"/>
-      <c r="BX33" s="1"/>
-      <c r="BY33" s="1"/>
-      <c r="BZ33" s="1"/>
-      <c r="CA33" s="1"/>
-      <c r="CB33" s="1"/>
-      <c r="CC33" s="1"/>
-      <c r="CD33" s="1"/>
-      <c r="CE33" s="1"/>
-      <c r="CF33" s="1"/>
-      <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
-      <c r="CI33" s="1"/>
-      <c r="CJ33" s="1"/>
-      <c r="CK33" s="1"/>
-      <c r="CL33" s="1"/>
-      <c r="CM33" s="1"/>
-      <c r="CN33" s="1"/>
-      <c r="CO33" s="1"/>
-      <c r="CP33" s="1"/>
-      <c r="CQ33" s="1"/>
-      <c r="CR33" s="1"/>
-      <c r="CS33" s="1"/>
-      <c r="CT33" s="1"/>
-      <c r="CU33" s="1"/>
-      <c r="CV33" s="1"/>
-      <c r="CW33" s="1"/>
-      <c r="CX33" s="1"/>
-      <c r="CY33" s="1"/>
-      <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
-      <c r="DB33" s="1"/>
-      <c r="DC33" s="1"/>
-      <c r="DD33" s="1"/>
-      <c r="DE33" s="1"/>
-      <c r="DF33" s="1"/>
-      <c r="DG33" s="1"/>
-      <c r="DH33" s="1"/>
-      <c r="DI33" s="1"/>
-      <c r="DJ33" s="1"/>
-      <c r="DK33" s="1"/>
-      <c r="DL33" s="1"/>
-      <c r="DM33" s="1"/>
-      <c r="DN33" s="1"/>
-      <c r="DO33" s="1"/>
-      <c r="DP33" s="1"/>
-      <c r="DQ33" s="1"/>
-      <c r="DR33" s="1"/>
-      <c r="DS33" s="1"/>
-      <c r="DT33" s="1"/>
-      <c r="DU33" s="1"/>
-      <c r="DV33" s="1"/>
-      <c r="DW33" s="1"/>
-      <c r="DX33" s="1"/>
-      <c r="DY33" s="1"/>
-      <c r="DZ33" s="1"/>
-      <c r="EA33" s="1"/>
-      <c r="EB33" s="1"/>
-      <c r="EC33" s="1"/>
-      <c r="ED33" s="1"/>
-      <c r="EE33" s="1"/>
-      <c r="EF33" s="1"/>
-      <c r="EG33" s="1"/>
-      <c r="EH33" s="1"/>
-      <c r="EI33" s="1"/>
-      <c r="EJ33" s="1"/>
-      <c r="EK33" s="1"/>
-      <c r="EL33" s="1"/>
-      <c r="EM33" s="1"/>
-      <c r="EN33" s="1"/>
-      <c r="EO33" s="1"/>
-      <c r="EP33" s="1"/>
-      <c r="EQ33" s="1"/>
-      <c r="ER33" s="1"/>
-      <c r="ES33" s="1"/>
-      <c r="ET33" s="1"/>
-      <c r="EU33" s="1"/>
-      <c r="EV33" s="1"/>
-      <c r="EW33" s="1"/>
-      <c r="EX33" s="1"/>
-      <c r="EY33" s="1"/>
-      <c r="EZ33" s="1"/>
-      <c r="FA33" s="1"/>
-      <c r="FB33" s="1"/>
-      <c r="FC33" s="1"/>
-      <c r="FD33" s="1"/>
-      <c r="FE33" s="1"/>
-      <c r="FF33" s="1"/>
-      <c r="FG33" s="1"/>
-      <c r="FH33" s="1"/>
-      <c r="FI33" s="1"/>
-      <c r="FJ33" s="1"/>
-      <c r="FK33" s="1"/>
-      <c r="FL33" s="1"/>
-      <c r="FM33" s="1"/>
-      <c r="FN33" s="1"/>
-      <c r="FO33" s="1"/>
-      <c r="FP33" s="1"/>
-      <c r="FQ33" s="1"/>
-      <c r="FR33" s="1"/>
-      <c r="FS33" s="1"/>
-      <c r="FT33" s="1"/>
-      <c r="FU33" s="1"/>
-      <c r="FV33" s="1"/>
-      <c r="FW33" s="1"/>
-      <c r="FX33" s="1"/>
-      <c r="FY33" s="1"/>
-      <c r="FZ33" s="1"/>
-      <c r="GA33" s="1"/>
-      <c r="GB33" s="1"/>
-      <c r="GC33" s="1"/>
-      <c r="GD33" s="1"/>
-      <c r="GE33" s="1"/>
-      <c r="GF33" s="1"/>
-      <c r="GG33" s="1"/>
-      <c r="GH33" s="1"/>
-      <c r="GI33" s="1"/>
-      <c r="GJ33" s="1"/>
-      <c r="GK33" s="1"/>
-      <c r="GL33" s="1"/>
-      <c r="GM33" s="1"/>
-      <c r="GN33" s="1"/>
-      <c r="GO33" s="1"/>
-      <c r="GP33" s="1"/>
-      <c r="GQ33" s="1"/>
-      <c r="GR33" s="1"/>
-      <c r="GS33" s="1"/>
-      <c r="GT33" s="1"/>
-      <c r="GU33" s="1"/>
-      <c r="GV33" s="1"/>
-      <c r="GW33" s="1"/>
-      <c r="GX33" s="1"/>
-      <c r="GY33" s="1"/>
-      <c r="GZ33" s="1"/>
-      <c r="HA33" s="1"/>
-      <c r="HB33" s="1"/>
-      <c r="HC33" s="1"/>
-      <c r="HD33" s="1"/>
-      <c r="HE33" s="1"/>
-      <c r="HF33" s="1"/>
-      <c r="HG33" s="1"/>
-      <c r="HH33" s="1"/>
-      <c r="HI33" s="1"/>
-      <c r="HJ33" s="1"/>
-      <c r="HK33" s="1"/>
-      <c r="HL33" s="1"/>
-      <c r="HM33" s="1"/>
-      <c r="HN33" s="1"/>
-      <c r="HO33" s="1"/>
-      <c r="HP33" s="1"/>
-      <c r="HQ33" s="1"/>
-      <c r="HR33" s="1"/>
-      <c r="HS33" s="1"/>
-      <c r="HT33" s="1"/>
-      <c r="HU33" s="1"/>
-      <c r="HV33" s="1"/>
-      <c r="HW33" s="1"/>
-      <c r="HX33" s="1"/>
-      <c r="HY33" s="1"/>
-      <c r="HZ33" s="1"/>
-      <c r="IA33" s="1"/>
-      <c r="IB33" s="1"/>
-      <c r="IC33" s="1"/>
-      <c r="ID33" s="1"/>
-      <c r="IE33" s="1"/>
-      <c r="IF33" s="1"/>
-      <c r="IG33" s="1"/>
-      <c r="IH33" s="1"/>
-      <c r="II33" s="1"/>
-      <c r="IJ33" s="1"/>
-      <c r="IK33" s="1"/>
-      <c r="IL33" s="1"/>
-      <c r="IM33" s="1"/>
-      <c r="IN33" s="1"/>
-      <c r="IO33" s="1"/>
-      <c r="IP33" s="1"/>
-      <c r="IQ33" s="1"/>
-      <c r="IR33" s="1"/>
-      <c r="IS33" s="1"/>
-      <c r="IT33" s="1"/>
-      <c r="IU33" s="1"/>
-      <c r="IV33" s="1"/>
-      <c r="IW33" s="1"/>
-      <c r="IX33" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="S14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+  <mergeCells count="41">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -28204,18 +27923,33 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="S13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A10" xr:uid="{E91AEC05-00EE-47E8-9E45-C6C4AA2F74C2}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A9" xr:uid="{E91AEC05-00EE-47E8-9E45-C6C4AA2F74C2}">
       <formula1>"引数,戻り値,例外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A9:A12" xr:uid="{A3A9E69C-6FF6-4047-B8D0-54E47E24ADC9}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A9:A11" xr:uid="{A3A9E69C-6FF6-4047-B8D0-54E47E24ADC9}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28227,12 +27961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -28364,6 +28092,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28374,15 +28108,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28400,6 +28125,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
